--- a/data/trans_dic/P25_12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_12-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos de ansiedad</t>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,2%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,36</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,29</t>
+          <t>0,0; 17,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,77</t>
+          <t>0,0; 22,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 25,11</t>
+          <t>1,8; 17,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 22,92</t>
+          <t>6,4; 27,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,71</t>
+          <t>6,93; 28,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 15,91</t>
+          <t>10,58; 32,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,92</t>
+          <t>1,34; 11,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 17,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 15,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 21,6</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,05</t>
+          <t>3,18; 22,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 14,6</t>
+          <t>1,14; 17,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,63</t>
+          <t>1,39; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 19,96</t>
+          <t>0,48; 14,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 14,18</t>
+          <t>3,7; 22,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,25</t>
+          <t>1,76; 15,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,36</t>
+          <t>1,52; 13,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,04</t>
+          <t>8,61; 29,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,75</t>
+          <t>5,1; 19,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 13,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 11,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 16,71</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>11,11%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 14,41</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 11,68</t>
+          <t>1,73; 16,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,66</t>
+          <t>1,75; 16,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 23,96</t>
+          <t>3,68; 22,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 30,49</t>
+          <t>9,06; 24,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 21,83</t>
+          <t>15,8; 32,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 16,17</t>
+          <t>8,56; 22,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,8</t>
+          <t>9,61; 23,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,55</t>
+          <t>6,15; 15,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 23,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 16,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 20,7</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,61</t>
+          <t>1,21; 11,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 15,81</t>
+          <t>4,6; 18,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 19,25</t>
+          <t>7,9; 23,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 25,59</t>
+          <t>6,67; 22,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 29,21</t>
+          <t>12,07; 27,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 27,27</t>
+          <t>14,81; 31,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,66</t>
+          <t>13,34; 28,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 20,56</t>
+          <t>17,26; 35,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 22,27</t>
+          <t>8,28; 17,93</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 21,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 23,73</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 25,21</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,67</t>
+          <t>4,13; 18,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 9,7</t>
+          <t>2,4; 14,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,44</t>
+          <t>5,27; 21,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 28,84</t>
+          <t>8,19; 26,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 34,45</t>
+          <t>9,21; 29,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 25,63</t>
+          <t>14,83; 39,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 17,54</t>
+          <t>11,87; 33,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 19,21</t>
+          <t>16,79; 42,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 18,21</t>
+          <t>7,44; 19,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,26; 22,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 23,56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 29,68</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,13</t>
+          <t>2,81; 24,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,7</t>
+          <t>0,0; 14,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,77</t>
+          <t>0,0; 17,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 24,21</t>
+          <t>7,71; 34,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 23,04</t>
+          <t>1,97; 15,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 24,47</t>
+          <t>7,29; 32,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,5</t>
+          <t>2,93; 23,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 15,99</t>
+          <t>2,89; 26,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 17,42</t>
+          <t>3,71; 15,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 20,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 14,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 23,68</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>14,45%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,87</t>
+          <t>4,11; 9,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,47</t>
+          <t>4,11; 9,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,24</t>
+          <t>4,97; 10,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,09</t>
+          <t>7,41; 15,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,08</t>
+          <t>10,1; 16,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,92</t>
+          <t>15,72; 22,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,73</t>
+          <t>11,32; 18,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,6; 14,25</t>
+          <t>15,01; 22,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,21</t>
+          <t>8,0; 12,8</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 15,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 13,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9753</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18162</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19201</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28685</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11614</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21677</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19201</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38438</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18408</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32938</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 23066</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7690; 32520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8495; 34973</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15393; 47376</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3227; 27492</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10647; 40113</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8365; 37609</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21401; 62910</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16060</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8542</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11048</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18057</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8800</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6396</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27887</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34117</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17342</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14351</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5361; 38091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1598; 24048</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2145; 23276</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1092; 33966</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6103; 37342</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2236; 19690</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1924; 17656</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13981; 47770</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17016; 64602</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7009; 35755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5330; 33017</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18575; 65183</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7905</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8580</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19221</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49481</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28980</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39858</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43139</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57386</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>37559</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59079</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14240</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2328; 21656</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2415; 23014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6630; 41424</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23936; 63839</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33077; 68199</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17151; 44850</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23046; 57000</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26196; 64166</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38819; 79519</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23621; 55240</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38355; 86947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15863</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22097</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25597</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41028</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40989</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35354</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54664</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>50231</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>56852</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57451</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80260</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2253; 21610</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7423; 29542</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12339; 36230</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13432; 45175</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26070; 60119</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27528; 57915</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23012; 49834</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36729; 75275</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33359; 72202</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39676; 76153</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39812; 77995</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56801; 104420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15700</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14062</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23138</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19368</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23639</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19720</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37224</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35068</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32644</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33782</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>60362</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6497; 29120</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3170; 18986</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6498; 26345</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12447; 39809</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10488; 33510</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13366; 35876</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11002; 31117</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23018; 57872</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20186; 52335</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20577; 49308</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20841; 50853</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>42838; 85791</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11874</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23766</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17902</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9543</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21521</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20851</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22143</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14820</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>45287</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3076; 27244</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13055</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16159</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10633; 47629</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2715; 21454</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7667; 34679</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3238; 25936</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5989; 55107</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9173; 39331</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10837; 38735</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5258; 30042</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>23041; 81748</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>58407</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>49072</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57971</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>112524</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>136613</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>158973</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>119193</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>209839</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>195019</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>208045</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>177164</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>322362</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>36625; 84233</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31265; 74657</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>39220; 80832</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>77396; 158503</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>104072; 171564</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>131617; 190678</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93377; 150276</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>165783; 253151</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>153746; 246076</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>173848; 255063</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>141452; 214089</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>264782; 382955</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>